--- a/app/uploads/GMAT.xlsx
+++ b/app/uploads/GMAT.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>timestamp</t>
   </si>
@@ -50,9 +50,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>seconds from a reference Julian date</t>
-  </si>
-  <si>
     <t>vx</t>
   </si>
   <si>
@@ -138,12 +135,30 @@
   </si>
   <si>
     <t>warn_low</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t>Julian date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,9 +220,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -523,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -537,45 +552,48 @@
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" customWidth="1"/>
     <col min="10" max="10" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -583,33 +601,36 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>2415020.5</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1000000000000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1E+16</v>
+        <v>2444239.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2469807.5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2524593.5</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
       </c>
       <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1">
         <v>-14</v>
@@ -624,18 +645,21 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1">
         <v>-14</v>
@@ -650,18 +674,21 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
         <v>-14</v>
@@ -676,18 +703,21 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -696,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -705,18 +735,21 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>6478</v>
@@ -725,18 +758,21 @@
         <v>6378</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>6478</v>
@@ -745,18 +781,21 @@
         <v>6378</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>6478</v>
@@ -765,18 +804,21 @@
         <v>6378</v>
       </c>
       <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1">
         <v>6478</v>
@@ -785,18 +827,24 @@
         <v>6378</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
-        <v>21</v>
+      <c r="K11" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/app/uploads/GMAT.xlsx
+++ b/app/uploads/GMAT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chavi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chavi/Desktop/repositories/quindar-proxy/app/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20020" windowHeight="8420"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17900" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>timestamp</t>
   </si>
@@ -38,9 +38,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>units</t>
   </si>
   <si>
@@ -150,6 +147,72 @@
   </si>
   <si>
     <t>Julian date</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>ground station</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>longitude of ground station location</t>
+  </si>
+  <si>
+    <t>latitude of ground station location</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>stationId</t>
+  </si>
+  <si>
+    <t>ground station id</t>
+  </si>
+  <si>
+    <t>satellite id</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>qc</t>
+  </si>
+  <si>
+    <t>quaternion q1</t>
+  </si>
+  <si>
+    <t>quaternion q2</t>
+  </si>
+  <si>
+    <t>quaternion q3</t>
+  </si>
+  <si>
+    <t>quaternion qc</t>
+  </si>
+  <si>
+    <t>attitude</t>
   </si>
 </sst>
 </file>
@@ -538,16 +601,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
@@ -560,45 +623,48 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1">
         <v>2415020.5</v>
@@ -613,24 +679,24 @@
         <v>2524593.5</v>
       </c>
       <c r="I2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>-14</v>
@@ -645,21 +711,21 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1">
         <v>-14</v>
@@ -674,21 +740,21 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1">
         <v>-14</v>
@@ -703,21 +769,21 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -726,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1">
         <v>10</v>
@@ -735,21 +801,21 @@
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>6478</v>
@@ -758,21 +824,21 @@
         <v>6378</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>6478</v>
@@ -781,21 +847,21 @@
         <v>6378</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>6478</v>
@@ -804,21 +870,21 @@
         <v>6378</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>6478</v>
@@ -827,24 +893,206 @@
         <v>6378</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-180</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-90</v>
+      </c>
+      <c r="G12" s="1">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1">
+        <v>180</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-450</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-360</v>
+      </c>
+      <c r="G13" s="1">
+        <v>360</v>
+      </c>
+      <c r="H13" s="1">
+        <v>450</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
